--- a/biology/Zoologie/Diplodactylus_furcosus/Diplodactylus_furcosus.xlsx
+++ b/biology/Zoologie/Diplodactylus_furcosus/Diplodactylus_furcosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplodactylus furcosus est une espèce de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplodactylus furcosus est une espèce de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Australie-Méridionale[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Australie-Méridionale. 
 Sa présence est incertaine en Nouvelle-Galles du Sud et au Victoria.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1863 : Eine Übersicht der von Hrn. Richard Schomburgk an das zoologische Museum eingesandten Amphibien, aus Buchsfelde bei Adelaide in Südaustralien. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1863, p. 228-236 (texte intégral).</t>
         </is>
